--- a/JPEM_DAPP/Tableau Table 2.xlsx
+++ b/JPEM_DAPP/Tableau Table 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JPEM_Git_Main\JPEM\JPEM_DAPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ADD2AC-5A75-4223-94F9-9B79567199F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98458A-E1FA-4D20-BD6D-BD58E7C33171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="3645" windowWidth="28800" windowHeight="11835" xr2:uid="{E1E1CD67-B97D-4335-A706-C6DAD6E3FDB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{E1E1CD67-B97D-4335-A706-C6DAD6E3FDB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>location</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TotalDeathCount</t>
   </si>
@@ -60,6 +57,12 @@
   </si>
   <si>
     <t>Oceania</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6CFB8F-11B1-443E-AD94-447D9A16E167}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -447,15 +450,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2100005</v>
@@ -463,7 +466,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1663257</v>
@@ -471,7 +474,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1636953</v>
@@ -479,7 +482,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1357513</v>
@@ -487,7 +490,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>259102</v>
@@ -495,10 +498,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>32577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7049407</v>
       </c>
     </row>
   </sheetData>
